--- a/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:23:32+00:00</t>
+    <t>2025-06-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:37:09+00:00</t>
+    <t>2025-06-19T12:46:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T16:12:12+00:00</t>
+    <t>2025-06-19T16:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T16:32:27+00:00</t>
+    <t>2025-06-19T16:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1133,7 +1133,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-performer-identifiers.codesystem</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1403,7 +1403,7 @@
     <t>Observation.performer.identifier.system</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-subject-identifiers.codesystem</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2307,7 +2307,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.1015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
